--- a/src/main/resources/validate/post/success/post_valid_add.xlsx
+++ b/src/main/resources/validate/post/success/post_valid_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiseungmin/Desktop/project/mom/src/main/resources/validate/post/success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D12A859-FBE6-B34E-93B1-16574BE07CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BE0DE-9C58-D741-AB7E-C673D266759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{DECE7B6D-615A-074B-BBAD-556715FCBC55}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="3" xr2:uid="{DECE7B6D-615A-074B-BBAD-556715FCBC55}"/>
   </bookViews>
   <sheets>
     <sheet name="임신가이드_2_3달" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>itemId</t>
   </si>
@@ -103,16 +103,129 @@
     <t>술·담배는 멀리 해주세요</t>
   </si>
   <si>
+    <t>sub_item_1_id</t>
+  </si>
+  <si>
+    <t>sub_item_title1</t>
+  </si>
+  <si>
+    <t>sub_item_content1</t>
+  </si>
+  <si>
+    <t>sub_item_2_id</t>
+  </si>
+  <si>
+    <t>sub_item_title2</t>
+  </si>
+  <si>
+    <t>sub_item_content2</t>
+  </si>
+  <si>
+    <t>qna_item_1_id</t>
+  </si>
+  <si>
+    <t>qna_item_question1</t>
+  </si>
+  <si>
+    <t>qna_item_answer1</t>
+  </si>
+  <si>
+    <t>qna_item_2_id</t>
+  </si>
+  <si>
+    <t>qna_item_question2</t>
+  </si>
+  <si>
+    <t>qna_item_answer2</t>
+  </si>
+  <si>
+    <t>태반의 발달과 역할</t>
+  </si>
+  <si>
+    <t>임신 4주부터 태아 주위를 덮는 융모 조직이 활발하게 증식해 자궁벽의 혈관과 연결되며 태반으로 발달하게 됩니다. 이로써 태반은 태아에게 필요한 영양과 산소를 공급하고, 태아가 만든 불필요한 노폐물을 엄마 몸으로 전달하는 중요한 역할을 수행합니다. 예를 들어, 엄마가 섭취한 음식의 영양소가 태반을 통해 태아에게 전달되어 올바른 성장에 기여하게 됩니다.</t>
+  </si>
+  <si>
+    <t>탯줄의 형성과 관계 강화</t>
+  </si>
+  <si>
+    <t>태반이 형성되기 시작하면 그와 함께 탯줄도 생기게 됩니다. 탯줄은 엄마와 태아 사이를 잇는 다리 역할을 하여, 태반을 통해 전달되는 영양분과 산소를 태아에게 안정적으로 운반합니다. 예를 들어, 건강한 식사와 적절한 휴식이 엄마에게서 태반과 탯줄을 거쳐 태아에게 전달되어 태아의 건강한 성장을 돕게 됩니다.</t>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장관의 발달</t>
+  </si>
+  <si>
+    <t>태아의 심장은 아직 형태를 갖추지 않았지만 두 개의 혈관이 모인 튜브 모양의 심장관으로 시작해요. 이 심장관은 경련하는 수축을 반복하며 혈액을 온몸으로 보내는 역할을 해요. 이후 점차 형태가 변해 진짜 심장으로 발달하게 됩니다.</t>
+  </si>
+  <si>
+    <t>심장박동 감지</t>
+  </si>
+  <si>
+    <t>심장관의 수축으로 인해 태아의 심장박동이 나타나기 시작해요. 초음파 검사를 통해 태아의 첫 심장박동 소리를 들을 수 있게 되며, 이는 태아가 정상적으로 혈액을 순환시키고 있다는 중요한 신호랍니다. 예를 들어, 첫 심장박동을 확인하는 것은 산모와 의료진 모두에게 큰 안도감을 줍니다.</t>
+  </si>
+  <si>
+    <t>남자 태아의 특징</t>
+  </si>
+  <si>
+    <t>남자 태아의 경우 전립샘이 형성되기 시작해 이를 통해 성별이 구분됩니다. 전립샘은 남성 생식 기관의 초기 발달로, 나중에 중요한 역할을 하게 돼요. 예를 들어, 임신 중 태아를 초음파로 바라볼 때 전립샘의 형성이 확인되면 남자 태아임을 알 수 있어요.</t>
+  </si>
+  <si>
+    <t>여자 태아의 난소 발달</t>
+  </si>
+  <si>
+    <t>여자 태아는 복부에 위치하던 난소가 점차 골반으로 이동하는 과정을 거칩니다. 태아 시기에는 약 600만~700만 개의 원시 난자가 형성되지만, 시간이 지나면서 그 수는 약 200만 개 정도로 줄어들어요. 이는 여자의 생식 기능 발달과 관련되어 있으며, 건강한 생식 발달에 중요한 역할을 해요.</t>
+  </si>
+  <si>
+    <t>태아 심장의 변화</t>
+  </si>
+  <si>
+    <t>태아의 심장은 초기 탯줄 같은 형태에서 가슴 안으로 내려와 자리 잡으며 본격적인 기능을 시작합니다. 이 과정은 마치 심장이 작은 엔진처럼 작동하여 태아에게 필요한 혈액을 순환시키는 역할을 해요. 이렇게 변한 심장은 아기의 전신에 산소와 영양분을 공급하는 중요한 역할을 수행합니다.</t>
+  </si>
+  <si>
+    <t>혈액순환의 역할</t>
+  </si>
+  <si>
+    <t>심장이 혈액을 온몸으로 보내면서 혈액순환이 완성됩니다. 혈액을 통해 산소와 영양이 공급되면, 투명한 피부에 혈관이 비쳐 붉은 기운이 감돌게 됩니다. 예를 들어, 아기가 건강하게 자라날 수 있도록 모든 신체 조직에 꼭 필요한 영양소와 산소를 전달하는 역할을 해요.</t>
+  </si>
+  <si>
+    <t>뇌 조직의 발달</t>
+  </si>
+  <si>
+    <t>임신이 진행되며 뇌의 크기가 커지고 뇌 조직의 수가 늘어나요. 매끈하던 뇌 표면에 복잡한 주름과 홈이 생기며, 이 주름들이 신경 순환계와 연결되어 두뇌 활동을 돕습니다. 예를 들어, 뇌가 발달하면서 태아는 자신의 의지대로 움직임을 조절할 수 있게 되고, 이는 학습 능력 향상으로 이어져요.</t>
+  </si>
+  <si>
+    <t>감각 기능의 완성</t>
+  </si>
+  <si>
+    <t>뇌 조직이 활발해지면서 청각과 시각이 거의 완성 단계에 이르게 돼요. 태아는 외부 소리를 들을 수 있고, 빛이나 움직임에 반응하여 시각적으로 자극을 받게 됩니다. 예를 들어, 엄마의 목소리나 주변 환경의 소리에 민감하게 반응하며, 이를 통해 세상을 조금씩 인식하는 능력이 발달해요.</t>
+  </si>
+  <si>
+    <t>눈의 초점 맞추기와 표정 변화</t>
+  </si>
+  <si>
+    <t>시각 발달</t>
+  </si>
+  <si>
+    <t>배냇짓을 시작하면서 눈동자가 완성되어 태아가 앞을 보고 초점을 맞출 수 있게 됩니다. 자궁 밖의 밝은 빛을 보며 강한 빛에 놀라는 반응을 보일 정도로 시각이 발달하고 있어요. 이처럼 눈이 발달하면서 주변 환경을 인지하는 능력이 급격히 향상됩니다.</t>
+  </si>
+  <si>
+    <t>다양한 표정</t>
+  </si>
+  <si>
+    <t>초음파 검사 중에도 웃거나 찡그린 등 다양한 표정을 지을 수 있습니다. 이러한 표정은 태아가 감각 자극에 어떻게 반응하는지를 보여주는 중요한 신호예요. 예를 들어, 밝은 빛을 보며 고개를 돌리거나 표정을 변화시키는 모습은 태아의 감정과 인지 능력이 발달했음을 의미합니다.</t>
+  </si>
+  <si>
     <t>임신 초기 특히 임신 14주 이전에는 태아의 뇌 조직이 민감하게 발달하고 있으므로, 높은 온도에 노출되는 것을 피하는 것이 좋습니다. 찜질방이나 사우나 같은 곳에서는 체온이 급격하게 상승하여 태아의 발달에 부정적인 영향을 줄 수 있으며, 임신부 자신도 감염이나 빈혈 등의 위험에 노출될 수 있습니다. 또한 대중목욕탕은 여러 사람이 함께 사용하는 환경에서 감염 위험도 있으므로, 이러한 이유로 임신 중에는 찜질방과 대중목욕탕 이용을 삼가는 것이 좋습니다. 대신 미지근한 물로 샤워하는 등 온도를 적절하게 조절하면서 위생 관리를 신경쓰는 방법을 추천드립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>임신 중에는 술과 담배를 피하는 것이 좋습니다. 니코틴은 혈관을 수축시켜 엄마의 혈액 내 산소와 영양분이 태아에게 제대로 전달되지 못하게 만들 수 있어요. 이로 인해 태아는 영양 부족으로 성장에 어려움을 겪거나, 심할 경우 유산이나 사산, 또는 저체중아 출산과 같은 문제가 발생할 수 있습니다. 또한, 담배 연기에 포함된 유해물질은 엄마를 통해 태아에게 그대로 전달되어 태아의 발달에 부정적인 영향을 줄 수 있습니다. 임신 초기에는 한 잔의 술도 기형을 초래할 위험이 있으므로, 임신을 계획하는 여성이나 임신 초기의 경우에는 술과 담배, 그리고 간접흡연도 피하는 것이 좋습니다. 이러한 이유로 임신 기간 동안 술과 담배는 멀리하는 것이 안전한 선택입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈의 초점 맞추기와 표정 변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무리한 활동은 자제해주세요</t>
@@ -503,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578DF9D2-9101-2B4C-B6FF-FA4C6368D8BE}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -515,7 +628,7 @@
     <col min="3" max="3" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,10 +653,46 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="64" customHeight="1">
+    <row r="2" spans="1:20" ht="64" customHeight="1">
       <c r="A2">
-        <v>10001</v>
+        <v>100000</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -566,10 +715,46 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>101000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>102000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>103000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>104000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="64" customHeight="1">
+    <row r="3" spans="1:20" ht="64" customHeight="1">
       <c r="A3">
-        <v>10002</v>
+        <v>100001</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -592,22 +777,59 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>101001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>102001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <v>103001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>104001</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="64" customHeight="1"/>
-    <row r="5" spans="1:8" ht="64" customHeight="1"/>
-    <row r="6" spans="1:8" ht="64" customHeight="1"/>
-    <row r="7" spans="1:8" ht="64" customHeight="1"/>
-    <row r="8" spans="1:8" ht="64" customHeight="1"/>
-    <row r="9" spans="1:8" ht="64" customHeight="1"/>
-    <row r="10" spans="1:8" ht="64" customHeight="1"/>
-    <row r="11" spans="1:8" ht="64" customHeight="1"/>
-    <row r="12" spans="1:8" ht="64" customHeight="1"/>
-    <row r="13" spans="1:8" ht="64" customHeight="1"/>
-    <row r="14" spans="1:8" ht="64" customHeight="1"/>
-    <row r="15" spans="1:8" ht="64" customHeight="1"/>
-    <row r="16" spans="1:8" ht="64" customHeight="1"/>
+    <row r="4" spans="1:20" ht="64" customHeight="1"/>
+    <row r="5" spans="1:20" ht="64" customHeight="1"/>
+    <row r="6" spans="1:20" ht="64" customHeight="1"/>
+    <row r="7" spans="1:20" ht="64" customHeight="1"/>
+    <row r="8" spans="1:20" ht="64" customHeight="1"/>
+    <row r="9" spans="1:20" ht="64" customHeight="1"/>
+    <row r="10" spans="1:20" ht="64" customHeight="1"/>
+    <row r="11" spans="1:20" ht="64" customHeight="1"/>
+    <row r="12" spans="1:20" ht="64" customHeight="1"/>
+    <row r="13" spans="1:20" ht="64" customHeight="1"/>
+    <row r="14" spans="1:20" ht="64" customHeight="1"/>
+    <row r="15" spans="1:20" ht="64" customHeight="1"/>
+    <row r="16" spans="1:20" ht="64" customHeight="1"/>
     <row r="17" ht="64" customHeight="1"/>
     <row r="18" ht="64" customHeight="1"/>
+    <row r="19" ht="64" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3A7C8-4484-2146-9716-156655064AE8}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -628,7 +850,7 @@
     <col min="3" max="3" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,10 +875,46 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="64" customHeight="1">
+    <row r="2" spans="1:20" ht="64" customHeight="1">
       <c r="A2">
-        <v>11001</v>
+        <v>110000</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -679,10 +937,46 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>111000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2">
+        <v>112000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2">
+        <v>113000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>114000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="64" customHeight="1">
+    <row r="3" spans="1:20" ht="64" customHeight="1">
       <c r="A3">
-        <v>11002</v>
+        <v>110001</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -705,20 +999,56 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>111001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3">
+        <v>112001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <v>113001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>114001</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="64" customHeight="1"/>
-    <row r="5" spans="1:8" ht="64" customHeight="1"/>
-    <row r="6" spans="1:8" ht="64" customHeight="1"/>
-    <row r="7" spans="1:8" ht="64" customHeight="1"/>
-    <row r="8" spans="1:8" ht="64" customHeight="1"/>
-    <row r="9" spans="1:8" ht="64" customHeight="1"/>
-    <row r="10" spans="1:8" ht="64" customHeight="1"/>
-    <row r="11" spans="1:8" ht="64" customHeight="1"/>
-    <row r="12" spans="1:8" ht="64" customHeight="1"/>
-    <row r="13" spans="1:8" ht="64" customHeight="1"/>
-    <row r="14" spans="1:8" ht="64" customHeight="1"/>
-    <row r="15" spans="1:8" ht="64" customHeight="1"/>
-    <row r="16" spans="1:8" ht="64" customHeight="1"/>
+    <row r="4" spans="1:20" ht="64" customHeight="1"/>
+    <row r="5" spans="1:20" ht="64" customHeight="1"/>
+    <row r="6" spans="1:20" ht="64" customHeight="1"/>
+    <row r="7" spans="1:20" ht="64" customHeight="1"/>
+    <row r="8" spans="1:20" ht="64" customHeight="1"/>
+    <row r="9" spans="1:20" ht="64" customHeight="1"/>
+    <row r="10" spans="1:20" ht="64" customHeight="1"/>
+    <row r="11" spans="1:20" ht="64" customHeight="1"/>
+    <row r="12" spans="1:20" ht="64" customHeight="1"/>
+    <row r="13" spans="1:20" ht="64" customHeight="1"/>
+    <row r="14" spans="1:20" ht="64" customHeight="1"/>
+    <row r="15" spans="1:20" ht="64" customHeight="1"/>
+    <row r="16" spans="1:20" ht="64" customHeight="1"/>
     <row r="17" ht="64" customHeight="1"/>
     <row r="18" ht="64" customHeight="1"/>
     <row r="19" ht="64" customHeight="1"/>
@@ -744,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M9" sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -756,7 +1086,7 @@
     <col min="3" max="3" width="120.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,10 +1111,46 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="64" customHeight="1">
+    <row r="2" spans="1:20" ht="64" customHeight="1">
       <c r="A2">
-        <v>12001</v>
+        <v>120000</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -807,16 +1173,52 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>121000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2">
+        <v>122000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2">
+        <v>123000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>124000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="64" customHeight="1">
+    <row r="3" spans="1:20" ht="64" customHeight="1">
       <c r="A3">
-        <v>12002</v>
+        <v>120001</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -833,20 +1235,56 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>121001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3">
+        <v>122001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>123001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>124001</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="64" customHeight="1"/>
-    <row r="5" spans="1:8" ht="64" customHeight="1"/>
-    <row r="6" spans="1:8" ht="64" customHeight="1"/>
-    <row r="7" spans="1:8" ht="64" customHeight="1"/>
-    <row r="8" spans="1:8" ht="64" customHeight="1"/>
-    <row r="9" spans="1:8" ht="64" customHeight="1"/>
-    <row r="10" spans="1:8" ht="64" customHeight="1"/>
-    <row r="11" spans="1:8" ht="64" customHeight="1"/>
-    <row r="12" spans="1:8" ht="64" customHeight="1"/>
-    <row r="13" spans="1:8" ht="64" customHeight="1"/>
-    <row r="14" spans="1:8" ht="64" customHeight="1"/>
-    <row r="15" spans="1:8" ht="64" customHeight="1"/>
-    <row r="16" spans="1:8" ht="64" customHeight="1"/>
+    <row r="4" spans="1:20" ht="64" customHeight="1"/>
+    <row r="5" spans="1:20" ht="64" customHeight="1"/>
+    <row r="6" spans="1:20" ht="64" customHeight="1"/>
+    <row r="7" spans="1:20" ht="64" customHeight="1"/>
+    <row r="8" spans="1:20" ht="64" customHeight="1"/>
+    <row r="9" spans="1:20" ht="64" customHeight="1"/>
+    <row r="10" spans="1:20" ht="64" customHeight="1"/>
+    <row r="11" spans="1:20" ht="64" customHeight="1"/>
+    <row r="12" spans="1:20" ht="64" customHeight="1"/>
+    <row r="13" spans="1:20" ht="64" customHeight="1"/>
+    <row r="14" spans="1:20" ht="64" customHeight="1"/>
+    <row r="15" spans="1:20" ht="64" customHeight="1"/>
+    <row r="16" spans="1:20" ht="64" customHeight="1"/>
     <row r="17" ht="64" customHeight="1"/>
     <row r="18" ht="64" customHeight="1"/>
     <row r="19" ht="64" customHeight="1"/>
@@ -868,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4353230-7866-6A42-9254-1C6DE69CBB58}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
@@ -906,13 +1344,13 @@
     </row>
     <row r="2" spans="1:8" ht="64" customHeight="1">
       <c r="A2">
-        <v>13001</v>
+        <v>130001</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -932,13 +1370,13 @@
     </row>
     <row r="3" spans="1:8" ht="64" customHeight="1">
       <c r="A3">
-        <v>13002</v>
+        <v>130002</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -958,13 +1396,13 @@
     </row>
     <row r="4" spans="1:8" ht="64" customHeight="1">
       <c r="A4">
-        <v>13003</v>
+        <v>130003</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>0</v>
